--- a/Documents/Objects Description.xlsx
+++ b/Documents/Objects Description.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lt00036625\Documents\Push-Penguin-3D\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t00194492\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
   <si>
     <t>Characters</t>
   </si>
@@ -135,12 +135,6 @@
     <t>Christian</t>
   </si>
   <si>
-    <t>Arcon</t>
-  </si>
-  <si>
-    <t>Emmet</t>
-  </si>
-  <si>
     <t>Shane</t>
   </si>
   <si>
@@ -157,6 +151,18 @@
   </si>
   <si>
     <t>KeyboardMouse</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Laura</t>
   </si>
 </sst>
 </file>
@@ -500,13 +506,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -520,6 +526,9 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
       <c r="B3" t="s">
         <v>32</v>
       </c>
@@ -528,6 +537,9 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
       <c r="B4" t="s">
         <v>33</v>
       </c>
@@ -541,6 +553,9 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
       <c r="B7" t="s">
         <v>34</v>
       </c>
@@ -549,6 +564,9 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
       <c r="B8" t="s">
         <v>35</v>
       </c>
@@ -562,6 +580,9 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
       <c r="B12" t="s">
         <v>36</v>
       </c>
@@ -570,66 +591,87 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>41</v>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>45</v>
       </c>
       <c r="C20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
       <c r="C23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>44</v>
+      </c>
       <c r="C24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
